--- a/projekt/szablon.xlsx
+++ b/projekt/szablon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukasz.gancarczyk\Documents\Studia\architektura systemow komputerowych\architektura_sys_komp_git\projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBFF7545-E616-4324-87B7-868B8C2469F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A68135-ED53-4E0D-B6B7-DA74CFAEFE7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1470" windowWidth="29040" windowHeight="15840" xr2:uid="{60D4EA9E-AF2F-4916-9A54-FAA4AE783E46}"/>
   </bookViews>
@@ -34,23 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
-  <si>
-    <t>Ahhh</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>ahhh</t>
-  </si>
-  <si>
     <t>bt</t>
   </si>
   <si>
-    <t>ah</t>
-  </si>
-  <si>
     <t>lista</t>
   </si>
   <si>
@@ -58,6 +49,42 @@
   </si>
   <si>
     <t>polecenia</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>BX</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>DX</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>AL.</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>DL</t>
   </si>
 </sst>
 </file>
@@ -264,12 +291,6 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -283,6 +304,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,401 +639,401 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFF246D-F4B3-4124-9A07-5EB9F1CC31B3}">
   <dimension ref="F12:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="12" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="18">
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
         <v>1</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="12">
         <v>2</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="12">
         <v>3</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="12">
         <v>4</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="12">
         <v>5</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="12">
         <v>6</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="12">
         <v>7</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="12">
         <v>8</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="11"/>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
     </row>
     <row r="14" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F14" s="18">
+      <c r="F14" s="12">
         <v>1</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="G14" s="6"/>
+      <c r="H14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F15" s="12">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F16" s="12">
+        <v>3</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F17" s="12">
+        <v>4</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F18" s="12">
+        <v>5</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F19" s="12">
+        <v>6</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F20" s="12">
+        <v>7</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F21" s="12">
+        <v>8</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F22" s="12">
+        <v>9</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F23" s="12">
+        <v>10</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="s">
+      <c r="J23" s="7"/>
+      <c r="K23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="s">
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F24" s="12">
+        <v>11</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P14" s="14"/>
-    </row>
-    <row r="15" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F15" s="18">
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F25" s="12">
+        <v>12</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F26" s="12">
+        <v>13</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="14"/>
-    </row>
-    <row r="16" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F16" s="18">
-        <v>3</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F27" s="12">
+        <v>14</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L16" s="4" t="s">
+      <c r="J27" s="7"/>
+      <c r="K27" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O16" s="4" t="s">
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F28" s="12">
+        <v>15</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F29" s="12">
+        <v>16</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="P16" s="14"/>
-    </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F17" s="18">
-        <v>4</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="14"/>
-    </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F18" s="18">
-        <v>5</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="J29" s="7"/>
+      <c r="K29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P18" s="14"/>
-    </row>
-    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F19" s="18">
-        <v>6</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="14"/>
-    </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F20" s="18">
-        <v>7</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="P20" s="14"/>
-    </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F21" s="18">
-        <v>8</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="14"/>
-    </row>
-    <row r="22" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F22" s="18">
-        <v>9</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="14"/>
-    </row>
-    <row r="23" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F23" s="18">
-        <v>10</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="14"/>
-    </row>
-    <row r="24" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F24" s="18">
-        <v>11</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="14"/>
-    </row>
-    <row r="25" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F25" s="18">
-        <v>12</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="14"/>
-    </row>
-    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F26" s="18">
-        <v>13</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="14"/>
-    </row>
-    <row r="27" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F27" s="18">
-        <v>14</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="14"/>
-    </row>
-    <row r="28" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F28" s="18">
-        <v>15</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="14"/>
-    </row>
-    <row r="29" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F29" s="18">
-        <v>16</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="14"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="8"/>
     </row>
     <row r="30" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="18">
+      <c r="F30" s="12">
         <v>17</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="17"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
